--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19bf9171b6e18731/Documenten/Masterproef/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenni\OneDrive\Documenten\Masterproef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="AECADA6CA3C902291FFEFFA2CD533AC8B958C4B4" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{B30B70C7-5D29-4AD0-BBAE-C7CA47AE9C92}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="AECADA6CA3C902291FFEFFA2CD533AC8B958C4B4" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{49CB4927-A4CD-4110-9E91-183157AC269A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7905" xr2:uid="{FCF6F198-3308-44C1-B7C4-8A97FA86A381}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>Implementatie Xamarin</t>
   </si>
   <si>
-    <t>Implementatie PhoneGap</t>
-  </si>
-  <si>
     <t>Implementatie Qt</t>
   </si>
   <si>
@@ -106,13 +103,16 @@
   </si>
   <si>
     <t>Wetenschappelijke tekst schrijven</t>
+  </si>
+  <si>
+    <t>Implementatie Apache Cordova</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,16 +128,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,24 +196,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -493,7 +554,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +563,7 @@
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
@@ -532,17 +593,17 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="3">
         <v>42878</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -561,15 +622,15 @@
         <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -577,22 +638,22 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4"/>
@@ -601,13 +662,13 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="4"/>
@@ -619,8 +680,8 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenni\OneDrive\Documenten\Masterproef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="AECADA6CA3C902291FFEFFA2CD533AC8B958C4B4" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{49CB4927-A4CD-4110-9E91-183157AC269A}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="AECADA6CA3C902291FFEFFA2CD533AC8B958C4B4" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{BBE34792-7A14-4B34-8F98-DAB98326EF27}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7905" xr2:uid="{FCF6F198-3308-44C1-B7C4-8A97FA86A381}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>November</t>
   </si>
@@ -63,15 +63,9 @@
     <t>Paar delen uitgeschreven</t>
   </si>
   <si>
-    <t>Qt implementatie af van vorig jaar</t>
-  </si>
-  <si>
     <t>Beetje meer uitgeschreven (examens)</t>
   </si>
   <si>
-    <t>Qt deel van de tekst al schrijven</t>
-  </si>
-  <si>
     <t>Helft tekst afmaken</t>
   </si>
   <si>
@@ -106,13 +100,16 @@
   </si>
   <si>
     <t>Implementatie Apache Cordova</t>
+  </si>
+  <si>
+    <t>Qt &amp; React Native research opschrijven</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,20 +134,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,11 +150,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -212,33 +197,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
-    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutraal" xfId="2" builtinId="28"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15250C-8622-492F-BC3D-18159570E001}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,68 +575,68 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I1" s="3">
         <v>42878</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
+      <c r="A4" s="9"/>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -662,14 +644,14 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
+      <c r="A5" s="9"/>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -679,22 +661,9 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenni\OneDrive\Documenten\Masterproef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="AECADA6CA3C902291FFEFFA2CD533AC8B958C4B4" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{BBE34792-7A14-4B34-8F98-DAB98326EF27}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="AECADA6CA3C902291FFEFFA2CD533AC8B958C4B4" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{EE23D4F2-85DC-4DC9-833F-471231678613}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7905" xr2:uid="{FCF6F198-3308-44C1-B7C4-8A97FA86A381}"/>
   </bookViews>
@@ -208,15 +208,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -536,7 +536,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,10 +582,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -611,8 +611,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -634,8 +634,8 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="4"/>
@@ -649,8 +649,8 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="4"/>
